--- a/clientes2.xlsx
+++ b/clientes2.xlsx
@@ -61,7 +61,7 @@
     <t>(50) 83304-0422</t>
   </si>
   <si>
-    <t>Arthur Costa</t>
+    <t>Arthuria Costa</t>
   </si>
   <si>
     <t>novaesrodrigo@melo.com</t>
@@ -475,7 +475,7 @@
     <col min="2" max="2" style="6" width="20.433571428571426" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="10.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="7" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="6.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="8.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -577,7 +577,7 @@
         <v>31236</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
